--- a/biology/Botanique/Loranthaceae/Loranthaceae.xlsx
+++ b/biology/Botanique/Loranthaceae/Loranthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Loranthacées regroupe des plantes dicotylédones ; elle comprend un millier d'espèces réparties en près de 70 genres.
 Ce sont des arbres, quelques lianes et pour la plupart des arbustes ou des arbrisseaux, parfois aux feuilles réduites (la photosynthèse se faisant dans les tiges), sans vraies racines, souvent semi-parasites des parties aériennes de l'hôte ou dans quelques cas des racines, aux feuilles persistantes. On les rencontre dans les régions tempérées chaudes à tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Loranthus composé du grec λορος / loros (racine latine lorum), sangle, ceinture, et du suffixe grec νθος / anthos, fleur, en référence à la forme des pétales de ses fleurs.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 Actinanthella
 Aetanthus
 Agelanthus
@@ -609,7 +625,7 @@
 Tristerix
 Tupeia
 Vanwykia
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[2] :
+Selon Angiosperm Phylogeny Website                        (21 mai 2010) :
 Actinanthella Balle
 Aetanthus (Eichler) Engl.
 Agelanthus Tiegh.
@@ -687,7 +703,7 @@
 Trithecanthera Tiegh.
 Tupeia Cham. &amp; Schltdl.
 Vanwykia Wiens
-Selon DELTA Angio           (29 avr. 2010)[3] :
+Selon DELTA Angio           (29 avr. 2010) :
 Actinanthella
 Aetanthus
 Agelanthus
@@ -762,7 +778,7 @@
 Trithecanthera
 Tupeia
 Vanwykia
-Selon ITIS      (29 avr. 2010)[4] :
+Selon ITIS      (29 avr. 2010) :
 Dendropemon (Blume) J.A. &amp; J.H. Schultes
 Dendrophthora Eichl.
 Eremolepis</t>
